--- a/data/trans_bre/IP17-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP17-Habitat-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>9,15</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>18,98</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,86</t>
+          <t>-4,59</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,31</t>
+          <t>-9,59</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>47,27%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,07%</t>
+          <t>629,83%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>18,03%</t>
+          <t>-21,89%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-22,16%</t>
+          <t>-26,08%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 7,22</t>
+          <t>-11,27; 30,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 5,73</t>
+          <t>4,57; 37,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 10,16</t>
+          <t>-25,29; 15,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,11; 1,56</t>
+          <t>-39,75; 17,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-22,98; 37,9</t>
+          <t>-46,21; 309,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-27,02; 29,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,41; 54,8</t>
+          <t>-83,32; 188,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-45,65; 10,76</t>
+          <t>-73,43; 103,07</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,28</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,75</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>3,86</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>-4,31</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-22,89%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,13%</t>
+          <t>-3,07%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,6%</t>
+          <t>18,03%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>-22,16%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,73; 0,94</t>
+          <t>-5,83; 7,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 10,8</t>
+          <t>-7,1; 5,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 5,89</t>
+          <t>-3,03; 10,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 7,51</t>
+          <t>-10,11; 1,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-45,41; 4,95</t>
+          <t>-22,98; 37,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,89; 62,39</t>
+          <t>-27,02; 29,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-30,24; 37,62</t>
+          <t>-12,41; 54,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-30,08; 59,65</t>
+          <t>-45,65; 10,76</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,15</t>
+          <t>-5,67</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,98</t>
+          <t>-4,57</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-4,59</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-9,59</t>
+          <t>-2,15</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>47,27%</t>
+          <t>-24,97%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>629,83%</t>
+          <t>-17,81%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-21,89%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-26,08%</t>
+          <t>-12,5%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,27; 30,87</t>
+          <t>-12,25; 2,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,57; 37,66</t>
+          <t>-11,07; 3,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-25,29; 15,73</t>
+          <t>-5,31; 7,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-39,75; 17,36</t>
+          <t>-9,96; 4,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-46,21; 309,6</t>
+          <t>-47,79; 12,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,75; 18,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-83,32; 188,81</t>
+          <t>-24,61; 50,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-73,43; 103,07</t>
+          <t>-46,09; 35,2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,67</t>
+          <t>-5,28</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,57</t>
+          <t>3,75</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,15</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-24,97%</t>
+          <t>-22,89%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-17,81%</t>
+          <t>18,13%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>-1,6%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-12,5%</t>
+          <t>6,27%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,25; 2,09</t>
+          <t>-11,73; 0,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,07; 3,86</t>
+          <t>-3,01; 10,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 7,82</t>
+          <t>-6,4; 5,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 4,75</t>
+          <t>-5,38; 7,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-47,79; 12,33</t>
+          <t>-45,41; 4,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-38,75; 18,62</t>
+          <t>-12,89; 62,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-24,61; 50,93</t>
+          <t>-30,24; 37,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-46,09; 35,2</t>
+          <t>-30,08; 59,65</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP17-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP17-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,27; 30,87</t>
+          <t>-13,3; 30,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,57; 37,66</t>
+          <t>4,51; 38,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-25,29; 15,73</t>
+          <t>-25,11; 19,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-46,21; 309,6</t>
+          <t>-52,86; 317,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-83,32; 188,81</t>
+          <t>-81,56; 236,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,55; 6,28</t>
+          <t>-10,66; 5,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 7,39</t>
+          <t>-10,8; 7,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,99; 5,75</t>
+          <t>-10,93; 5,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,84; 4,97</t>
+          <t>-9,34; 5,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-41,73; 36,92</t>
+          <t>-44,05; 33,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,65; 37,16</t>
+          <t>-38,23; 36,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-44,37; 35,27</t>
+          <t>-43,06; 33,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-55,29; 49,82</t>
+          <t>-53,61; 58,44</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 7,22</t>
+          <t>-6,22; 6,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 5,73</t>
+          <t>-8,0; 5,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 10,16</t>
+          <t>-2,63; 10,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,11; 1,56</t>
+          <t>-10,44; 2,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-22,98; 37,9</t>
+          <t>-24,29; 33,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-27,02; 29,12</t>
+          <t>-28,69; 28,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-12,41; 54,8</t>
+          <t>-10,77; 57,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-45,65; 10,76</t>
+          <t>-46,7; 14,39</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-12,25; 2,09</t>
+          <t>-13,21; 1,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,07; 3,86</t>
+          <t>-12,11; 3,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 7,82</t>
+          <t>-6,09; 8,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 4,75</t>
+          <t>-9,18; 5,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-47,79; 12,33</t>
+          <t>-49,12; 9,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-38,75; 18,62</t>
+          <t>-43,0; 14,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-24,61; 50,93</t>
+          <t>-27,34; 58,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-46,09; 35,2</t>
+          <t>-44,32; 36,74</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,73; 0,94</t>
+          <t>-11,18; 1,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 10,8</t>
+          <t>-3,47; 10,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 5,89</t>
+          <t>-6,62; 5,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 7,51</t>
+          <t>-5,75; 7,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-45,41; 4,95</t>
+          <t>-43,5; 6,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,89; 62,39</t>
+          <t>-14,21; 61,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-30,24; 37,62</t>
+          <t>-31,29; 37,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-30,08; 59,65</t>
+          <t>-30,17; 60,21</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 0,3</t>
+          <t>-6,22; 0,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 3,81</t>
+          <t>-3,33; 3,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 4,43</t>
+          <t>-3,07; 4,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 0,97</t>
+          <t>-5,9; 1,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-26,75; 1,41</t>
+          <t>-25,85; 2,42</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-15,18; 18,17</t>
+          <t>-13,72; 17,68</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-12,18; 25,54</t>
+          <t>-13,99; 22,47</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-29,67; 6,56</t>
+          <t>-30,31; 8,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP17-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP17-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,27 +668,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,3; 30,78</t>
+          <t>-11,02; 29,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,51; 38,21</t>
+          <t>3,85; 37,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-25,11; 19,0</t>
+          <t>-23,91; 21,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-39,75; 17,36</t>
+          <t>-38,62; 19,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-52,86; 317,45</t>
+          <t>-46,71; 341,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,19 +698,19 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-81,56; 236,58</t>
+          <t>-83,44; 225,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-73,43; 103,07</t>
+          <t>-78,12; 110,58</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,66; 5,74</t>
+          <t>-10,97; 5,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,8; 7,33</t>
+          <t>-10,7; 8,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,93; 5,58</t>
+          <t>-10,83; 6,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 5,93</t>
+          <t>-9,06; 5,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-44,05; 33,68</t>
+          <t>-43,89; 30,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-38,23; 36,44</t>
+          <t>-36,1; 38,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-43,06; 33,16</t>
+          <t>-43,55; 41,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-53,61; 58,44</t>
+          <t>-52,36; 50,14</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 6,47</t>
+          <t>-6,3; 6,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 5,68</t>
+          <t>-7,19; 6,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 10,16</t>
+          <t>-2,6; 10,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,44; 2,33</t>
+          <t>-9,85; 1,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-24,29; 33,68</t>
+          <t>-24,48; 35,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-28,69; 28,52</t>
+          <t>-26,51; 31,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,77; 57,22</t>
+          <t>-10,65; 54,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-46,7; 14,39</t>
+          <t>-44,08; 12,65</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,21; 1,7</t>
+          <t>-13,08; 1,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,11; 3,25</t>
+          <t>-11,89; 2,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 8,73</t>
+          <t>-5,42; 8,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 5,01</t>
+          <t>-9,58; 5,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-49,12; 9,69</t>
+          <t>-48,88; 8,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-43,0; 14,13</t>
+          <t>-40,69; 9,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-27,34; 58,11</t>
+          <t>-25,54; 53,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-44,32; 36,74</t>
+          <t>-47,76; 45,75</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,18; 1,13</t>
+          <t>-12,07; 1,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 10,74</t>
+          <t>-3,84; 10,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 5,86</t>
+          <t>-6,33; 5,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 7,63</t>
+          <t>-5,36; 7,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-43,5; 6,74</t>
+          <t>-45,46; 8,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,21; 61,31</t>
+          <t>-15,66; 58,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-31,29; 37,6</t>
+          <t>-29,46; 40,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-30,17; 60,21</t>
+          <t>-28,75; 61,71</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 0,51</t>
+          <t>-6,45; 0,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 3,76</t>
+          <t>-2,98; 4,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 4,06</t>
+          <t>-2,58; 4,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 1,3</t>
+          <t>-5,34; 1,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-25,85; 2,42</t>
+          <t>-26,07; 3,36</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-13,72; 17,68</t>
+          <t>-12,47; 19,26</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-13,99; 22,47</t>
+          <t>-12,18; 24,85</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-30,31; 8,07</t>
+          <t>-28,46; 9,37</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP17-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP17-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,15</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18,98</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,59</t>
+          <t>-2,79</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-9,59</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>47,27%</t>
+          <t>-3,55%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>629,83%</t>
+          <t>9,89%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-21,89%</t>
+          <t>-13,42%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-26,08%</t>
+          <t>-5,76%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,02; 29,68</t>
+          <t>-8,97; 6,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,85; 37,67</t>
+          <t>-6,28; 10,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-23,91; 21,24</t>
+          <t>-10,34; 5,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-38,62; 19,68</t>
+          <t>-8,19; 7,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-46,71; 341,38</t>
+          <t>-36,43; 36,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,15; 63,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-83,44; 225,7</t>
+          <t>-43,25; 31,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-78,12; 110,58</t>
+          <t>-43,27; 65,17</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,69</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,42</t>
+          <t>3,86</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,99</t>
+          <t>-4,29</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-12,61%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-4,52%</t>
+          <t>-3,07%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-11,67%</t>
+          <t>18,03%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-14,34%</t>
+          <t>-22,01%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,97; 5,1</t>
+          <t>-5,83; 7,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,7; 8,0</t>
+          <t>-7,1; 5,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,83; 6,54</t>
+          <t>-3,03; 10,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,06; 5,32</t>
+          <t>-10,32; 1,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-43,89; 30,07</t>
+          <t>-22,98; 37,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-36,1; 38,97</t>
+          <t>-27,02; 29,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-43,55; 41,63</t>
+          <t>-12,41; 54,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-52,36; 50,14</t>
+          <t>-46,03; 10,02</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>-5,67</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>-4,57</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,86</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,31</t>
+          <t>-3,26</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>-24,97%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,07%</t>
+          <t>-17,81%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>18,03%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-22,16%</t>
+          <t>-19,06%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 6,64</t>
+          <t>-12,25; 2,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 6,29</t>
+          <t>-11,07; 3,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 10,03</t>
+          <t>-5,31; 7,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,85; 1,99</t>
+          <t>-11,92; 3,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-24,48; 35,46</t>
+          <t>-47,79; 12,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-26,51; 31,79</t>
+          <t>-38,75; 18,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,65; 54,96</t>
+          <t>-24,61; 50,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-44,08; 12,65</t>
+          <t>-56,03; 26,17</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-5,67</t>
+          <t>-5,28</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,57</t>
+          <t>3,75</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,15</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-24,97%</t>
+          <t>-22,89%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-17,81%</t>
+          <t>18,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>-1,6%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-12,5%</t>
+          <t>6,16%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,08; 1,22</t>
+          <t>-11,73; 0,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,89; 2,1</t>
+          <t>-3,01; 10,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 8,33</t>
+          <t>-6,4; 5,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,58; 5,96</t>
+          <t>-5,47; 7,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-48,88; 8,22</t>
+          <t>-45,41; 4,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-40,69; 9,68</t>
+          <t>-12,89; 62,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-25,54; 53,19</t>
+          <t>-30,24; 37,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-47,76; 45,75</t>
+          <t>-29,49; 63,15</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,28</t>
+          <t>-2,78</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,75</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-22,89%</t>
+          <t>-12,4%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>18,13%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,6%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>-12,7%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,07; 1,51</t>
+          <t>-6,45; 0,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 10,2</t>
+          <t>-3,79; 3,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 5,75</t>
+          <t>-2,61; 4,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 7,88</t>
+          <t>-6,25; 1,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-45,46; 8,08</t>
+          <t>-26,75; 1,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,66; 58,42</t>
+          <t>-15,18; 18,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-29,46; 40,11</t>
+          <t>-12,18; 25,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-28,75; 61,71</t>
+          <t>-32,34; 8,15</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-2,78</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,27</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,74</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-2,12</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-12,4%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>1,2%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>3,76%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-12,15%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-6,45; 0,63</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-2,98; 4,03</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-2,58; 4,43</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-5,34; 1,52</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-26,07; 3,36</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-12,47; 19,26</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-12,18; 24,85</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-28,46; 9,37</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
